--- a/bidouille club modif Steph riri plus.xlsx
+++ b/bidouille club modif Steph riri plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\transbo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\transbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1569A0-306C-402B-8152-CDD7CD93214A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E11837-4403-4A56-8569-206B05B747A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5385" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>128,138,148,158,168</t>
   </si>
   <si>
-    <t>129,139,149,159,169</t>
-  </si>
-  <si>
     <t>193 (253)</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>leds/comptoire</t>
+  </si>
+  <si>
+    <t>127,137,147,157,167</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1171,7 +1171,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="29">
         <v>32</v>
@@ -1193,13 +1193,13 @@
         <v>37</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1209,12 +1209,12 @@
       <c r="I7" s="32"/>
       <c r="J7" s="28"/>
       <c r="K7" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
@@ -1238,10 +1238,10 @@
         <v>58</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>55</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="10">
         <v>6</v>
@@ -1258,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="11">
         <v>173.18100000000001</v>
@@ -1273,10 +1273,10 @@
         <v>171.179</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>57</v>
@@ -1305,10 +1305,10 @@
         <v>187</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>57</v>
@@ -1337,10 +1337,10 @@
         <v>195</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>57</v>

--- a/bidouille club modif Steph riri plus.xlsx
+++ b/bidouille club modif Steph riri plus.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\transbo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\transbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E11837-4403-4A56-8569-206B05B747A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD814A5A-2613-487D-A330-37CBFBB0F747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
+    <workbookView xWindow="28680" yWindow="5385" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="patch riri" sheetId="2" r:id="rId2"/>
+    <sheet name="patch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="111">
   <si>
     <t>Acces</t>
   </si>
@@ -250,9 +251,6 @@
     <t>Trans Lat</t>
   </si>
   <si>
-    <t>Bar Interieur</t>
-  </si>
-  <si>
     <t>colonnes</t>
   </si>
   <si>
@@ -266,6 +264,102 @@
   </si>
   <si>
     <t>127,137,147,157,167</t>
+  </si>
+  <si>
+    <t>led bar</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>regie</t>
+  </si>
+  <si>
+    <t>sandwich</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>acces</t>
+  </si>
+  <si>
+    <t>vest</t>
+  </si>
+  <si>
+    <t>trans.face</t>
+  </si>
+  <si>
+    <t>trans.lat</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>strobe</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>bar : 24</t>
+  </si>
+  <si>
+    <t>sandwich :31</t>
+  </si>
+  <si>
+    <t>color macro</t>
+  </si>
+  <si>
+    <t>dim speed</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>colonnes : 51,61,71,81,91</t>
+  </si>
+  <si>
+    <t>trans.face : 121,131,141,151,161</t>
+  </si>
+  <si>
+    <t>regie : 101,11</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>trans.lat : 171,179</t>
+  </si>
+  <si>
+    <t>logo : 187</t>
+  </si>
+  <si>
+    <t>club : 195</t>
   </si>
 </sst>
 </file>
@@ -281,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +406,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -407,11 +537,288 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -423,9 +830,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,6 +902,240 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD43DCA-7CE4-4490-B7B0-D34E7DFBEE5E}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1661,9 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1040,13 +1680,13 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1060,22 +1700,22 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="23" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1083,65 +1723,65 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="23" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="8">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="1">
+        <v>79</v>
+      </c>
+      <c r="B5" s="32">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1156,94 +1796,112 @@
       <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="28">
+        <v>32</v>
+      </c>
+      <c r="E6" s="28">
+        <v>33</v>
+      </c>
+      <c r="F6" s="28">
+        <v>34</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30">
+        <v>31</v>
+      </c>
+      <c r="I6" s="31">
+        <v>36</v>
+      </c>
+      <c r="J6" s="37">
+        <v>37</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="29">
-        <v>32</v>
-      </c>
-      <c r="E6" s="29">
-        <v>33</v>
-      </c>
-      <c r="F6" s="29">
-        <v>34</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31">
-        <v>31</v>
-      </c>
-      <c r="I6" s="32">
-        <v>36</v>
-      </c>
-      <c r="J6" s="28">
-        <v>37</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29" t="s">
-        <v>76</v>
+      <c r="D7" s="28">
+        <v>25</v>
+      </c>
+      <c r="E7" s="28">
+        <v>26</v>
+      </c>
+      <c r="F7" s="28">
+        <v>27</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30">
+        <v>24</v>
+      </c>
+      <c r="I7" s="31">
+        <v>29</v>
+      </c>
+      <c r="J7" s="37">
+        <v>30</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="36" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1251,135 +1909,2858 @@
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>173.18100000000001</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>174.18199999999999</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>175.18299999999999</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>171.179</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>188</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>189</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>190</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>191</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>187</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>196</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>197</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>198</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>199</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>195</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>102.11199999999999</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>103.113</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>104.114</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>101.111</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>107.117</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="36">
         <v>108.11799999999999</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="36" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DEC275-69CB-4316-86C1-9828A0FCFFC0}">
+  <dimension ref="A1:Y47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB23:AB24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11">
+        <v>3</v>
+      </c>
+      <c r="D1" s="40">
+        <v>4</v>
+      </c>
+      <c r="E1" s="41">
+        <v>5</v>
+      </c>
+      <c r="F1" s="42">
+        <v>6</v>
+      </c>
+      <c r="G1" s="43">
+        <v>7</v>
+      </c>
+      <c r="H1" s="41">
+        <v>8</v>
+      </c>
+      <c r="I1" s="42">
+        <v>9</v>
+      </c>
+      <c r="J1" s="43">
+        <v>10</v>
+      </c>
+      <c r="K1" s="41">
+        <v>11</v>
+      </c>
+      <c r="L1" s="42">
+        <v>12</v>
+      </c>
+      <c r="M1" s="43">
+        <v>13</v>
+      </c>
+      <c r="N1" s="41">
+        <v>14</v>
+      </c>
+      <c r="O1" s="44">
+        <v>15</v>
+      </c>
+      <c r="P1" s="16">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <v>22</v>
+      </c>
+      <c r="W1" s="11">
+        <v>23</v>
+      </c>
+      <c r="X1" s="45">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>26</v>
+      </c>
+      <c r="B3" s="42">
+        <v>27</v>
+      </c>
+      <c r="C3" s="56">
+        <v>28</v>
+      </c>
+      <c r="D3" s="57">
+        <v>29</v>
+      </c>
+      <c r="E3" s="58">
+        <v>30</v>
+      </c>
+      <c r="F3" s="45">
+        <v>31</v>
+      </c>
+      <c r="G3" s="43">
+        <v>32</v>
+      </c>
+      <c r="H3" s="41">
+        <v>33</v>
+      </c>
+      <c r="I3" s="42">
+        <v>34</v>
+      </c>
+      <c r="J3" s="56">
+        <v>35</v>
+      </c>
+      <c r="K3" s="57">
+        <v>36</v>
+      </c>
+      <c r="L3" s="58">
+        <v>37</v>
+      </c>
+      <c r="M3" s="59">
+        <v>38</v>
+      </c>
+      <c r="N3" s="60">
+        <v>39</v>
+      </c>
+      <c r="O3" s="61">
+        <v>40</v>
+      </c>
+      <c r="P3" s="45">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>42</v>
+      </c>
+      <c r="R3" s="45">
+        <v>43</v>
+      </c>
+      <c r="S3" s="62">
+        <v>44</v>
+      </c>
+      <c r="T3" s="16">
+        <v>45</v>
+      </c>
+      <c r="U3" s="2">
+        <v>46</v>
+      </c>
+      <c r="V3" s="2">
+        <v>47</v>
+      </c>
+      <c r="W3" s="2">
+        <v>48</v>
+      </c>
+      <c r="X3" s="60">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="54"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>51</v>
+      </c>
+      <c r="B5" s="43">
+        <v>52</v>
+      </c>
+      <c r="C5" s="41">
+        <v>53</v>
+      </c>
+      <c r="D5" s="42">
+        <v>54</v>
+      </c>
+      <c r="E5" s="56">
+        <v>55</v>
+      </c>
+      <c r="F5" s="56">
+        <v>56</v>
+      </c>
+      <c r="G5" s="57">
+        <v>57</v>
+      </c>
+      <c r="H5" s="72">
+        <v>58</v>
+      </c>
+      <c r="I5" s="56">
+        <v>59</v>
+      </c>
+      <c r="J5" s="73">
+        <v>60</v>
+      </c>
+      <c r="K5" s="45">
+        <v>61</v>
+      </c>
+      <c r="L5" s="43">
+        <v>62</v>
+      </c>
+      <c r="M5" s="41">
+        <v>63</v>
+      </c>
+      <c r="N5" s="42">
+        <v>64</v>
+      </c>
+      <c r="O5" s="56">
+        <v>65</v>
+      </c>
+      <c r="P5" s="56">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>67</v>
+      </c>
+      <c r="R5" s="56">
+        <v>68</v>
+      </c>
+      <c r="S5" s="56">
+        <v>69</v>
+      </c>
+      <c r="T5" s="73">
+        <v>70</v>
+      </c>
+      <c r="U5" s="45">
+        <v>71</v>
+      </c>
+      <c r="V5" s="43">
+        <v>72</v>
+      </c>
+      <c r="W5" s="41">
+        <v>73</v>
+      </c>
+      <c r="X5" s="42">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="56">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <v>76</v>
+      </c>
+      <c r="B7" s="57">
+        <v>77</v>
+      </c>
+      <c r="C7" s="72">
+        <v>78</v>
+      </c>
+      <c r="D7" s="56">
+        <v>79</v>
+      </c>
+      <c r="E7" s="73">
+        <v>80</v>
+      </c>
+      <c r="F7" s="45">
+        <v>81</v>
+      </c>
+      <c r="G7" s="43">
+        <v>82</v>
+      </c>
+      <c r="H7" s="41">
+        <v>83</v>
+      </c>
+      <c r="I7" s="42">
+        <v>84</v>
+      </c>
+      <c r="J7" s="76">
+        <v>85</v>
+      </c>
+      <c r="K7" s="56">
+        <v>86</v>
+      </c>
+      <c r="L7" s="57">
+        <v>87</v>
+      </c>
+      <c r="M7" s="72">
+        <v>88</v>
+      </c>
+      <c r="N7" s="56">
+        <v>89</v>
+      </c>
+      <c r="O7" s="73">
+        <v>90</v>
+      </c>
+      <c r="P7" s="45">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>92</v>
+      </c>
+      <c r="R7" s="41">
+        <v>93</v>
+      </c>
+      <c r="S7" s="42">
+        <v>94</v>
+      </c>
+      <c r="T7" s="56">
+        <v>95</v>
+      </c>
+      <c r="U7" s="56">
+        <v>96</v>
+      </c>
+      <c r="V7" s="57">
+        <v>97</v>
+      </c>
+      <c r="W7" s="72">
+        <v>98</v>
+      </c>
+      <c r="X7" s="56">
+        <v>99</v>
+      </c>
+      <c r="Y7" s="73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" s="75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>101</v>
+      </c>
+      <c r="B9" s="43">
+        <v>102</v>
+      </c>
+      <c r="C9" s="41">
+        <v>103</v>
+      </c>
+      <c r="D9" s="42">
+        <v>104</v>
+      </c>
+      <c r="E9" s="56">
+        <v>105</v>
+      </c>
+      <c r="F9" s="56">
+        <v>106</v>
+      </c>
+      <c r="G9" s="57">
+        <v>107</v>
+      </c>
+      <c r="H9" s="72">
+        <v>108</v>
+      </c>
+      <c r="I9" s="56">
+        <v>109</v>
+      </c>
+      <c r="J9" s="73">
+        <v>110</v>
+      </c>
+      <c r="K9" s="45">
+        <v>111</v>
+      </c>
+      <c r="L9" s="43">
+        <v>112</v>
+      </c>
+      <c r="M9" s="41">
+        <v>113</v>
+      </c>
+      <c r="N9" s="42">
+        <v>114</v>
+      </c>
+      <c r="O9" s="56">
+        <v>115</v>
+      </c>
+      <c r="P9" s="56">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>117</v>
+      </c>
+      <c r="R9" s="72">
+        <v>118</v>
+      </c>
+      <c r="S9" s="56">
+        <v>119</v>
+      </c>
+      <c r="T9" s="73">
+        <v>120</v>
+      </c>
+      <c r="U9" s="45">
+        <v>121</v>
+      </c>
+      <c r="V9" s="43">
+        <v>122</v>
+      </c>
+      <c r="W9" s="41">
+        <v>123</v>
+      </c>
+      <c r="X9" s="42">
+        <v>124</v>
+      </c>
+      <c r="Y9" s="56">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>126</v>
+      </c>
+      <c r="B11" s="57">
+        <v>127</v>
+      </c>
+      <c r="C11" s="72">
+        <v>128</v>
+      </c>
+      <c r="D11" s="56">
+        <v>129</v>
+      </c>
+      <c r="E11" s="73">
+        <v>130</v>
+      </c>
+      <c r="F11" s="45">
+        <v>131</v>
+      </c>
+      <c r="G11" s="43">
+        <v>132</v>
+      </c>
+      <c r="H11" s="41">
+        <v>133</v>
+      </c>
+      <c r="I11" s="42">
+        <v>134</v>
+      </c>
+      <c r="J11" s="56">
+        <v>135</v>
+      </c>
+      <c r="K11" s="56">
+        <v>136</v>
+      </c>
+      <c r="L11" s="57">
+        <v>137</v>
+      </c>
+      <c r="M11" s="72">
+        <v>138</v>
+      </c>
+      <c r="N11" s="56">
+        <v>139</v>
+      </c>
+      <c r="O11" s="73">
+        <v>140</v>
+      </c>
+      <c r="P11" s="45">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>142</v>
+      </c>
+      <c r="R11" s="41">
+        <v>143</v>
+      </c>
+      <c r="S11" s="42">
+        <v>144</v>
+      </c>
+      <c r="T11" s="56">
+        <v>145</v>
+      </c>
+      <c r="U11" s="56">
+        <v>146</v>
+      </c>
+      <c r="V11" s="57">
+        <v>147</v>
+      </c>
+      <c r="W11" s="72">
+        <v>148</v>
+      </c>
+      <c r="X11" s="56">
+        <v>149</v>
+      </c>
+      <c r="Y11" s="73">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="U12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" s="75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>151</v>
+      </c>
+      <c r="B13" s="43">
+        <v>152</v>
+      </c>
+      <c r="C13" s="41">
+        <v>153</v>
+      </c>
+      <c r="D13" s="42">
+        <v>154</v>
+      </c>
+      <c r="E13" s="56">
+        <v>155</v>
+      </c>
+      <c r="F13" s="56">
+        <v>156</v>
+      </c>
+      <c r="G13" s="57">
+        <v>157</v>
+      </c>
+      <c r="H13" s="72">
+        <v>158</v>
+      </c>
+      <c r="I13" s="56">
+        <v>159</v>
+      </c>
+      <c r="J13" s="73">
+        <v>160</v>
+      </c>
+      <c r="K13" s="45">
+        <v>161</v>
+      </c>
+      <c r="L13" s="43">
+        <v>162</v>
+      </c>
+      <c r="M13" s="41">
+        <v>163</v>
+      </c>
+      <c r="N13" s="42">
+        <v>164</v>
+      </c>
+      <c r="O13" s="56">
+        <v>165</v>
+      </c>
+      <c r="P13" s="56">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="57">
+        <v>167</v>
+      </c>
+      <c r="R13" s="72">
+        <v>168</v>
+      </c>
+      <c r="S13" s="56">
+        <v>169</v>
+      </c>
+      <c r="T13" s="73">
+        <v>170</v>
+      </c>
+      <c r="U13" s="45">
+        <v>171</v>
+      </c>
+      <c r="V13" s="43">
+        <v>172</v>
+      </c>
+      <c r="W13" s="41">
+        <v>173</v>
+      </c>
+      <c r="X13" s="42">
+        <v>174</v>
+      </c>
+      <c r="Y13" s="78">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="X14" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y14" s="82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
+        <v>176</v>
+      </c>
+      <c r="B15" s="57">
+        <v>177</v>
+      </c>
+      <c r="C15" s="58">
+        <v>178</v>
+      </c>
+      <c r="D15" s="45">
+        <v>179</v>
+      </c>
+      <c r="E15" s="43">
+        <v>180</v>
+      </c>
+      <c r="F15" s="41">
+        <v>181</v>
+      </c>
+      <c r="G15" s="42">
+        <v>182</v>
+      </c>
+      <c r="H15" s="78">
+        <v>183</v>
+      </c>
+      <c r="I15" s="56">
+        <v>184</v>
+      </c>
+      <c r="J15" s="57">
+        <v>185</v>
+      </c>
+      <c r="K15" s="58">
+        <v>186</v>
+      </c>
+      <c r="L15" s="45">
+        <v>187</v>
+      </c>
+      <c r="M15" s="43">
+        <v>188</v>
+      </c>
+      <c r="N15" s="41">
+        <v>189</v>
+      </c>
+      <c r="O15" s="42">
+        <v>190</v>
+      </c>
+      <c r="P15" s="78">
+        <v>191</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>192</v>
+      </c>
+      <c r="R15" s="57">
+        <v>193</v>
+      </c>
+      <c r="S15" s="58">
+        <v>194</v>
+      </c>
+      <c r="T15" s="45">
+        <v>195</v>
+      </c>
+      <c r="U15" s="43">
+        <v>196</v>
+      </c>
+      <c r="V15" s="41">
+        <v>197</v>
+      </c>
+      <c r="W15" s="42">
+        <v>198</v>
+      </c>
+      <c r="X15" s="78">
+        <v>199</v>
+      </c>
+      <c r="Y15" s="56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="V16" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="W16" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="X16" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y16" s="63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <v>201</v>
+      </c>
+      <c r="B17" s="58">
+        <v>202</v>
+      </c>
+      <c r="C17" s="59">
+        <v>203</v>
+      </c>
+      <c r="D17" s="60">
+        <v>204</v>
+      </c>
+      <c r="E17" s="60">
+        <v>205</v>
+      </c>
+      <c r="F17" s="60">
+        <v>206</v>
+      </c>
+      <c r="G17" s="60">
+        <v>207</v>
+      </c>
+      <c r="H17" s="60">
+        <v>208</v>
+      </c>
+      <c r="I17" s="60">
+        <v>209</v>
+      </c>
+      <c r="J17" s="60">
+        <v>210</v>
+      </c>
+      <c r="K17" s="60">
+        <v>211</v>
+      </c>
+      <c r="L17" s="60">
+        <v>212</v>
+      </c>
+      <c r="M17" s="60">
+        <v>213</v>
+      </c>
+      <c r="N17" s="60">
+        <v>214</v>
+      </c>
+      <c r="O17" s="60">
+        <v>215</v>
+      </c>
+      <c r="P17" s="60">
+        <v>216</v>
+      </c>
+      <c r="Q17" s="60">
+        <v>217</v>
+      </c>
+      <c r="R17" s="60">
+        <v>218</v>
+      </c>
+      <c r="S17" s="60">
+        <v>219</v>
+      </c>
+      <c r="T17" s="60">
+        <v>220</v>
+      </c>
+      <c r="U17" s="60">
+        <v>221</v>
+      </c>
+      <c r="V17" s="60">
+        <v>222</v>
+      </c>
+      <c r="W17" s="60">
+        <v>223</v>
+      </c>
+      <c r="X17" s="60">
+        <v>224</v>
+      </c>
+      <c r="Y17" s="60">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
+        <v>226</v>
+      </c>
+      <c r="B19" s="60">
+        <v>227</v>
+      </c>
+      <c r="C19" s="2">
+        <v>228</v>
+      </c>
+      <c r="D19" s="2">
+        <v>229</v>
+      </c>
+      <c r="E19" s="2">
+        <v>230</v>
+      </c>
+      <c r="F19" s="2">
+        <v>231</v>
+      </c>
+      <c r="G19" s="2">
+        <v>232</v>
+      </c>
+      <c r="H19" s="2">
+        <v>233</v>
+      </c>
+      <c r="I19" s="2">
+        <v>234</v>
+      </c>
+      <c r="J19" s="2">
+        <v>235</v>
+      </c>
+      <c r="K19" s="2">
+        <v>236</v>
+      </c>
+      <c r="L19" s="2">
+        <v>237</v>
+      </c>
+      <c r="M19" s="2">
+        <v>238</v>
+      </c>
+      <c r="N19" s="2">
+        <v>239</v>
+      </c>
+      <c r="O19" s="2">
+        <v>240</v>
+      </c>
+      <c r="P19" s="2">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>242</v>
+      </c>
+      <c r="R19" s="2">
+        <v>243</v>
+      </c>
+      <c r="S19" s="2">
+        <v>244</v>
+      </c>
+      <c r="T19" s="2">
+        <v>245</v>
+      </c>
+      <c r="U19" s="2">
+        <v>246</v>
+      </c>
+      <c r="V19" s="2">
+        <v>247</v>
+      </c>
+      <c r="W19" s="2">
+        <v>248</v>
+      </c>
+      <c r="X19" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>251</v>
+      </c>
+      <c r="B21" s="2">
+        <v>252</v>
+      </c>
+      <c r="C21" s="2">
+        <v>253</v>
+      </c>
+      <c r="D21" s="2">
+        <v>254</v>
+      </c>
+      <c r="E21" s="2">
+        <v>255</v>
+      </c>
+      <c r="F21" s="2">
+        <v>256</v>
+      </c>
+      <c r="G21" s="2">
+        <v>257</v>
+      </c>
+      <c r="H21" s="2">
+        <v>258</v>
+      </c>
+      <c r="I21" s="2">
+        <v>259</v>
+      </c>
+      <c r="J21" s="2">
+        <v>260</v>
+      </c>
+      <c r="K21" s="2">
+        <v>261</v>
+      </c>
+      <c r="L21" s="2">
+        <v>262</v>
+      </c>
+      <c r="M21" s="2">
+        <v>263</v>
+      </c>
+      <c r="N21" s="2">
+        <v>264</v>
+      </c>
+      <c r="O21" s="2">
+        <v>265</v>
+      </c>
+      <c r="P21" s="2">
+        <v>266</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>267</v>
+      </c>
+      <c r="R21" s="2">
+        <v>268</v>
+      </c>
+      <c r="S21" s="2">
+        <v>269</v>
+      </c>
+      <c r="T21" s="2">
+        <v>270</v>
+      </c>
+      <c r="U21" s="2">
+        <v>271</v>
+      </c>
+      <c r="V21" s="2">
+        <v>272</v>
+      </c>
+      <c r="W21" s="2">
+        <v>273</v>
+      </c>
+      <c r="X21" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>276</v>
+      </c>
+      <c r="B23" s="2">
+        <v>277</v>
+      </c>
+      <c r="C23" s="2">
+        <v>278</v>
+      </c>
+      <c r="D23" s="2">
+        <v>279</v>
+      </c>
+      <c r="E23" s="2">
+        <v>280</v>
+      </c>
+      <c r="F23" s="2">
+        <v>281</v>
+      </c>
+      <c r="G23" s="2">
+        <v>282</v>
+      </c>
+      <c r="H23" s="2">
+        <v>283</v>
+      </c>
+      <c r="I23" s="2">
+        <v>284</v>
+      </c>
+      <c r="J23" s="2">
+        <v>285</v>
+      </c>
+      <c r="K23" s="2">
+        <v>286</v>
+      </c>
+      <c r="L23" s="2">
+        <v>287</v>
+      </c>
+      <c r="M23" s="2">
+        <v>288</v>
+      </c>
+      <c r="N23" s="2">
+        <v>289</v>
+      </c>
+      <c r="O23" s="2">
+        <v>290</v>
+      </c>
+      <c r="P23" s="2">
+        <v>291</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>292</v>
+      </c>
+      <c r="R23" s="2">
+        <v>293</v>
+      </c>
+      <c r="S23" s="2">
+        <v>294</v>
+      </c>
+      <c r="T23" s="2">
+        <v>295</v>
+      </c>
+      <c r="U23" s="2">
+        <v>296</v>
+      </c>
+      <c r="V23" s="2">
+        <v>297</v>
+      </c>
+      <c r="W23" s="2">
+        <v>298</v>
+      </c>
+      <c r="X23" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>301</v>
+      </c>
+      <c r="B25" s="2">
+        <v>302</v>
+      </c>
+      <c r="C25" s="2">
+        <v>303</v>
+      </c>
+      <c r="D25" s="2">
+        <v>304</v>
+      </c>
+      <c r="E25" s="2">
+        <v>305</v>
+      </c>
+      <c r="F25" s="2">
+        <v>306</v>
+      </c>
+      <c r="G25" s="2">
+        <v>307</v>
+      </c>
+      <c r="H25" s="2">
+        <v>308</v>
+      </c>
+      <c r="I25" s="2">
+        <v>309</v>
+      </c>
+      <c r="J25" s="2">
+        <v>310</v>
+      </c>
+      <c r="K25" s="2">
+        <v>311</v>
+      </c>
+      <c r="L25" s="2">
+        <v>312</v>
+      </c>
+      <c r="M25" s="2">
+        <v>313</v>
+      </c>
+      <c r="N25" s="2">
+        <v>314</v>
+      </c>
+      <c r="O25" s="2">
+        <v>315</v>
+      </c>
+      <c r="P25" s="2">
+        <v>316</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>317</v>
+      </c>
+      <c r="R25" s="2">
+        <v>318</v>
+      </c>
+      <c r="S25" s="2">
+        <v>319</v>
+      </c>
+      <c r="T25" s="2">
+        <v>320</v>
+      </c>
+      <c r="U25" s="2">
+        <v>321</v>
+      </c>
+      <c r="V25" s="2">
+        <v>322</v>
+      </c>
+      <c r="W25" s="2">
+        <v>323</v>
+      </c>
+      <c r="X25" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>326</v>
+      </c>
+      <c r="B27" s="2">
+        <v>327</v>
+      </c>
+      <c r="C27" s="2">
+        <v>328</v>
+      </c>
+      <c r="D27" s="2">
+        <v>329</v>
+      </c>
+      <c r="E27" s="2">
+        <v>330</v>
+      </c>
+      <c r="F27" s="2">
+        <v>331</v>
+      </c>
+      <c r="G27" s="2">
+        <v>332</v>
+      </c>
+      <c r="H27" s="2">
+        <v>333</v>
+      </c>
+      <c r="I27" s="2">
+        <v>334</v>
+      </c>
+      <c r="J27" s="2">
+        <v>335</v>
+      </c>
+      <c r="K27" s="2">
+        <v>336</v>
+      </c>
+      <c r="L27" s="2">
+        <v>337</v>
+      </c>
+      <c r="M27" s="2">
+        <v>338</v>
+      </c>
+      <c r="N27" s="2">
+        <v>339</v>
+      </c>
+      <c r="O27" s="2">
+        <v>340</v>
+      </c>
+      <c r="P27" s="2">
+        <v>341</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>342</v>
+      </c>
+      <c r="R27" s="2">
+        <v>343</v>
+      </c>
+      <c r="S27" s="2">
+        <v>344</v>
+      </c>
+      <c r="T27" s="2">
+        <v>345</v>
+      </c>
+      <c r="U27" s="2">
+        <v>346</v>
+      </c>
+      <c r="V27" s="2">
+        <v>347</v>
+      </c>
+      <c r="W27" s="2">
+        <v>348</v>
+      </c>
+      <c r="X27" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>351</v>
+      </c>
+      <c r="B29" s="2">
+        <v>352</v>
+      </c>
+      <c r="C29" s="2">
+        <v>353</v>
+      </c>
+      <c r="D29" s="2">
+        <v>354</v>
+      </c>
+      <c r="E29" s="2">
+        <v>355</v>
+      </c>
+      <c r="F29" s="2">
+        <v>356</v>
+      </c>
+      <c r="G29" s="2">
+        <v>357</v>
+      </c>
+      <c r="H29" s="2">
+        <v>358</v>
+      </c>
+      <c r="I29" s="2">
+        <v>359</v>
+      </c>
+      <c r="J29" s="2">
+        <v>360</v>
+      </c>
+      <c r="K29" s="2">
+        <v>361</v>
+      </c>
+      <c r="L29" s="2">
+        <v>362</v>
+      </c>
+      <c r="M29" s="2">
+        <v>363</v>
+      </c>
+      <c r="N29" s="2">
+        <v>364</v>
+      </c>
+      <c r="O29" s="2">
+        <v>365</v>
+      </c>
+      <c r="P29" s="2">
+        <v>366</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>367</v>
+      </c>
+      <c r="R29" s="2">
+        <v>368</v>
+      </c>
+      <c r="S29" s="2">
+        <v>369</v>
+      </c>
+      <c r="T29" s="2">
+        <v>370</v>
+      </c>
+      <c r="U29" s="2">
+        <v>371</v>
+      </c>
+      <c r="V29" s="2">
+        <v>372</v>
+      </c>
+      <c r="W29" s="2">
+        <v>373</v>
+      </c>
+      <c r="X29" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>376</v>
+      </c>
+      <c r="B31" s="2">
+        <v>377</v>
+      </c>
+      <c r="C31" s="2">
+        <v>378</v>
+      </c>
+      <c r="D31" s="2">
+        <v>379</v>
+      </c>
+      <c r="E31" s="2">
+        <v>380</v>
+      </c>
+      <c r="F31" s="2">
+        <v>381</v>
+      </c>
+      <c r="G31" s="2">
+        <v>382</v>
+      </c>
+      <c r="H31" s="2">
+        <v>383</v>
+      </c>
+      <c r="I31" s="2">
+        <v>384</v>
+      </c>
+      <c r="J31" s="2">
+        <v>385</v>
+      </c>
+      <c r="K31" s="2">
+        <v>386</v>
+      </c>
+      <c r="L31" s="2">
+        <v>387</v>
+      </c>
+      <c r="M31" s="2">
+        <v>388</v>
+      </c>
+      <c r="N31" s="2">
+        <v>389</v>
+      </c>
+      <c r="O31" s="2">
+        <v>390</v>
+      </c>
+      <c r="P31" s="2">
+        <v>391</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>392</v>
+      </c>
+      <c r="R31" s="2">
+        <v>393</v>
+      </c>
+      <c r="S31" s="2">
+        <v>394</v>
+      </c>
+      <c r="T31" s="2">
+        <v>395</v>
+      </c>
+      <c r="U31" s="2">
+        <v>396</v>
+      </c>
+      <c r="V31" s="2">
+        <v>397</v>
+      </c>
+      <c r="W31" s="2">
+        <v>398</v>
+      </c>
+      <c r="X31" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>401</v>
+      </c>
+      <c r="B33" s="2">
+        <v>402</v>
+      </c>
+      <c r="C33" s="2">
+        <v>403</v>
+      </c>
+      <c r="D33" s="2">
+        <v>404</v>
+      </c>
+      <c r="E33" s="2">
+        <v>405</v>
+      </c>
+      <c r="F33" s="2">
+        <v>406</v>
+      </c>
+      <c r="G33" s="2">
+        <v>407</v>
+      </c>
+      <c r="H33" s="2">
+        <v>408</v>
+      </c>
+      <c r="I33" s="2">
+        <v>409</v>
+      </c>
+      <c r="J33" s="2">
+        <v>410</v>
+      </c>
+      <c r="K33" s="2">
+        <v>411</v>
+      </c>
+      <c r="L33" s="2">
+        <v>412</v>
+      </c>
+      <c r="M33" s="2">
+        <v>413</v>
+      </c>
+      <c r="N33" s="2">
+        <v>414</v>
+      </c>
+      <c r="O33" s="2">
+        <v>415</v>
+      </c>
+      <c r="P33" s="2">
+        <v>416</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>417</v>
+      </c>
+      <c r="R33" s="2">
+        <v>418</v>
+      </c>
+      <c r="S33" s="2">
+        <v>419</v>
+      </c>
+      <c r="T33" s="2">
+        <v>420</v>
+      </c>
+      <c r="U33" s="2">
+        <v>421</v>
+      </c>
+      <c r="V33" s="2">
+        <v>422</v>
+      </c>
+      <c r="W33" s="2">
+        <v>423</v>
+      </c>
+      <c r="X33" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>426</v>
+      </c>
+      <c r="B35" s="2">
+        <v>427</v>
+      </c>
+      <c r="C35" s="2">
+        <v>428</v>
+      </c>
+      <c r="D35" s="2">
+        <v>429</v>
+      </c>
+      <c r="E35" s="2">
+        <v>430</v>
+      </c>
+      <c r="F35" s="2">
+        <v>431</v>
+      </c>
+      <c r="G35" s="2">
+        <v>432</v>
+      </c>
+      <c r="H35" s="2">
+        <v>433</v>
+      </c>
+      <c r="I35" s="2">
+        <v>434</v>
+      </c>
+      <c r="J35" s="2">
+        <v>435</v>
+      </c>
+      <c r="K35" s="2">
+        <v>436</v>
+      </c>
+      <c r="L35" s="2">
+        <v>437</v>
+      </c>
+      <c r="M35" s="2">
+        <v>438</v>
+      </c>
+      <c r="N35" s="2">
+        <v>439</v>
+      </c>
+      <c r="O35" s="2">
+        <v>440</v>
+      </c>
+      <c r="P35" s="2">
+        <v>441</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>442</v>
+      </c>
+      <c r="R35" s="2">
+        <v>443</v>
+      </c>
+      <c r="S35" s="2">
+        <v>444</v>
+      </c>
+      <c r="T35" s="2">
+        <v>445</v>
+      </c>
+      <c r="U35" s="2">
+        <v>446</v>
+      </c>
+      <c r="V35" s="2">
+        <v>447</v>
+      </c>
+      <c r="W35" s="2">
+        <v>448</v>
+      </c>
+      <c r="X35" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+    </row>
+    <row r="37" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>451</v>
+      </c>
+      <c r="B37" s="2">
+        <v>452</v>
+      </c>
+      <c r="C37" s="2">
+        <v>453</v>
+      </c>
+      <c r="D37" s="2">
+        <v>454</v>
+      </c>
+      <c r="E37" s="2">
+        <v>455</v>
+      </c>
+      <c r="F37" s="2">
+        <v>456</v>
+      </c>
+      <c r="G37" s="2">
+        <v>457</v>
+      </c>
+      <c r="H37" s="2">
+        <v>458</v>
+      </c>
+      <c r="I37" s="2">
+        <v>459</v>
+      </c>
+      <c r="J37" s="2">
+        <v>460</v>
+      </c>
+      <c r="K37" s="2">
+        <v>461</v>
+      </c>
+      <c r="L37" s="2">
+        <v>462</v>
+      </c>
+      <c r="M37" s="2">
+        <v>463</v>
+      </c>
+      <c r="N37" s="2">
+        <v>464</v>
+      </c>
+      <c r="O37" s="2">
+        <v>465</v>
+      </c>
+      <c r="P37" s="2">
+        <v>466</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>467</v>
+      </c>
+      <c r="R37" s="2">
+        <v>468</v>
+      </c>
+      <c r="S37" s="2">
+        <v>469</v>
+      </c>
+      <c r="T37" s="2">
+        <v>470</v>
+      </c>
+      <c r="U37" s="2">
+        <v>471</v>
+      </c>
+      <c r="V37" s="2">
+        <v>472</v>
+      </c>
+      <c r="W37" s="2">
+        <v>473</v>
+      </c>
+      <c r="X37" s="2">
+        <v>474</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>476</v>
+      </c>
+      <c r="B39" s="2">
+        <v>477</v>
+      </c>
+      <c r="C39" s="2">
+        <v>478</v>
+      </c>
+      <c r="D39" s="2">
+        <v>479</v>
+      </c>
+      <c r="E39" s="2">
+        <v>480</v>
+      </c>
+      <c r="F39" s="2">
+        <v>481</v>
+      </c>
+      <c r="G39" s="2">
+        <v>482</v>
+      </c>
+      <c r="H39" s="2">
+        <v>483</v>
+      </c>
+      <c r="I39" s="2">
+        <v>484</v>
+      </c>
+      <c r="J39" s="2">
+        <v>485</v>
+      </c>
+      <c r="K39" s="2">
+        <v>486</v>
+      </c>
+      <c r="L39" s="2">
+        <v>487</v>
+      </c>
+      <c r="M39" s="2">
+        <v>488</v>
+      </c>
+      <c r="N39" s="2">
+        <v>489</v>
+      </c>
+      <c r="O39" s="2">
+        <v>490</v>
+      </c>
+      <c r="P39" s="2">
+        <v>491</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>492</v>
+      </c>
+      <c r="R39" s="2">
+        <v>493</v>
+      </c>
+      <c r="S39" s="2">
+        <v>494</v>
+      </c>
+      <c r="T39" s="2">
+        <v>495</v>
+      </c>
+      <c r="U39" s="2">
+        <v>496</v>
+      </c>
+      <c r="V39" s="2">
+        <v>497</v>
+      </c>
+      <c r="W39" s="2">
+        <v>498</v>
+      </c>
+      <c r="X39" s="2">
+        <v>499</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>501</v>
+      </c>
+      <c r="B41" s="2">
+        <v>502</v>
+      </c>
+      <c r="C41" s="2">
+        <v>503</v>
+      </c>
+      <c r="D41" s="2">
+        <v>504</v>
+      </c>
+      <c r="E41" s="2">
+        <v>505</v>
+      </c>
+      <c r="F41" s="2">
+        <v>506</v>
+      </c>
+      <c r="G41" s="2">
+        <v>507</v>
+      </c>
+      <c r="H41" s="2">
+        <v>508</v>
+      </c>
+      <c r="I41" s="2">
+        <v>509</v>
+      </c>
+      <c r="J41" s="2">
+        <v>510</v>
+      </c>
+      <c r="K41" s="2">
+        <v>511</v>
+      </c>
+      <c r="L41" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="N42" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="P42" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q42" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="R42" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="S42" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="T42" s="93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="95">
+        <v>1</v>
+      </c>
+      <c r="C44" s="95">
+        <v>2</v>
+      </c>
+      <c r="D44" s="95">
+        <v>3</v>
+      </c>
+      <c r="E44" s="95">
+        <v>4</v>
+      </c>
+      <c r="F44" s="95">
+        <v>5</v>
+      </c>
+      <c r="G44" s="95">
+        <v>6</v>
+      </c>
+      <c r="H44" s="95">
+        <v>7</v>
+      </c>
+      <c r="I44" s="95">
+        <v>8</v>
+      </c>
+      <c r="J44" s="95">
+        <v>9</v>
+      </c>
+      <c r="K44" s="96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="M45" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="N45" s="103"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="S46" s="103"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="M47" s="103"/>
+      <c r="N47" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="L47:M47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="30" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/bidouille club modif Steph riri plus.xlsx
+++ b/bidouille club modif Steph riri plus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\transbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD814A5A-2613-487D-A330-37CBFBB0F747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9727A-B093-4286-BF34-CAAB93B38DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5385" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
   </bookViews>
@@ -347,9 +347,6 @@
     <t>trans.face : 121,131,141,151,161</t>
   </si>
   <si>
-    <t>regie : 101,11</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>club : 195</t>
+  </si>
+  <si>
+    <t>regie : 101,111</t>
   </si>
 </sst>
 </file>
@@ -903,6 +903,225 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -912,226 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1662,8 +1662,8 @@
     <col min="4" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="39"/>
+    <col min="10" max="10" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1714,8 +1714,8 @@
         <v>37</v>
       </c>
       <c r="I2" s="17"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1737,8 +1737,8 @@
         <v>38</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1770,10 +1770,10 @@
       <c r="I4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="105">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1812,7 +1812,7 @@
       <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="27" t="s">
         <v>76</v>
       </c>
@@ -1832,10 +1832,10 @@
       <c r="I6" s="31">
         <v>36</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="34">
         <v>37</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="27" t="s">
         <v>77</v>
       </c>
@@ -1863,10 +1863,10 @@
       <c r="I7" s="31">
         <v>29</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="34">
         <v>30</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1898,10 +1898,10 @@
       <c r="I8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1933,10 +1933,10 @@
       <c r="I9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1968,10 +1968,10 @@
       <c r="I10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2003,10 +2003,10 @@
       <c r="I11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2038,10 +2038,10 @@
       <c r="I12" s="18">
         <v>107.117</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="33">
         <v>108.11799999999999</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2058,13 +2058,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DEC275-69CB-4316-86C1-9828A0FCFFC0}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB23:AB24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -2074,40 +2074,40 @@
       <c r="C1" s="11">
         <v>3</v>
       </c>
-      <c r="D1" s="40">
+      <c r="D1" s="37">
         <v>4</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="38">
         <v>5</v>
       </c>
-      <c r="F1" s="42">
+      <c r="F1" s="39">
         <v>6</v>
       </c>
-      <c r="G1" s="43">
+      <c r="G1" s="40">
         <v>7</v>
       </c>
-      <c r="H1" s="41">
+      <c r="H1" s="38">
         <v>8</v>
       </c>
-      <c r="I1" s="42">
+      <c r="I1" s="39">
         <v>9</v>
       </c>
-      <c r="J1" s="43">
+      <c r="J1" s="40">
         <v>10</v>
       </c>
-      <c r="K1" s="41">
+      <c r="K1" s="38">
         <v>11</v>
       </c>
-      <c r="L1" s="42">
+      <c r="L1" s="39">
         <v>12</v>
       </c>
-      <c r="M1" s="43">
+      <c r="M1" s="40">
         <v>13</v>
       </c>
-      <c r="N1" s="41">
+      <c r="N1" s="38">
         <v>14</v>
       </c>
-      <c r="O1" s="44">
+      <c r="O1" s="41">
         <v>15</v>
       </c>
       <c r="P1" s="16">
@@ -2134,124 +2134,124 @@
       <c r="W1" s="11">
         <v>23</v>
       </c>
-      <c r="X1" s="45">
+      <c r="X1" s="42">
         <v>24</v>
       </c>
-      <c r="Y1" s="43">
+      <c r="Y1" s="40">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="11"/>
-      <c r="X2" s="55" t="s">
+      <c r="X2" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="Y2" s="48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+    <row r="3" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <v>26</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="39">
         <v>27</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="53">
         <v>28</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="54">
         <v>29</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="55">
         <v>30</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <v>31</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="40">
         <v>32</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="38">
         <v>33</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="39">
         <v>34</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="53">
         <v>35</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="54">
         <v>36</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="55">
         <v>37</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="56">
         <v>38</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="57">
         <v>39</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="58">
         <v>40</v>
       </c>
-      <c r="P3" s="45">
+      <c r="P3" s="42">
         <v>41</v>
       </c>
-      <c r="Q3" s="62">
+      <c r="Q3" s="59">
         <v>42</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="42">
         <v>43</v>
       </c>
-      <c r="S3" s="62">
+      <c r="S3" s="59">
         <v>44</v>
       </c>
       <c r="T3" s="16">
@@ -2266,1078 +2266,1078 @@
       <c r="W3" s="2">
         <v>48</v>
       </c>
-      <c r="X3" s="60">
+      <c r="X3" s="57">
         <v>49</v>
       </c>
-      <c r="Y3" s="60">
+      <c r="Y3" s="57">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="66" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-    </row>
-    <row r="5" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="T4" s="51"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+    </row>
+    <row r="5" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
         <v>51</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="40">
         <v>52</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="38">
         <v>53</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="39">
         <v>54</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="53">
         <v>55</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="53">
         <v>56</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="54">
         <v>57</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="69">
         <v>58</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="53">
         <v>59</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="70">
         <v>60</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="42">
         <v>61</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="40">
         <v>62</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="38">
         <v>63</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="39">
         <v>64</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="53">
         <v>65</v>
       </c>
-      <c r="P5" s="56">
+      <c r="P5" s="53">
         <v>66</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="54">
         <v>67</v>
       </c>
-      <c r="R5" s="56">
+      <c r="R5" s="53">
         <v>68</v>
       </c>
-      <c r="S5" s="56">
+      <c r="S5" s="53">
         <v>69</v>
       </c>
-      <c r="T5" s="73">
+      <c r="T5" s="70">
         <v>70</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="42">
         <v>71</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="40">
         <v>72</v>
       </c>
-      <c r="W5" s="41">
+      <c r="W5" s="38">
         <v>73</v>
       </c>
-      <c r="X5" s="42">
-        <v>74</v>
-      </c>
-      <c r="Y5" s="56">
+      <c r="X5" s="39">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="53">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="U6" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="X6" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y6" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+    <row r="6" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
         <v>76</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="54">
         <v>77</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="69">
         <v>78</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="53">
         <v>79</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="70">
         <v>80</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="42">
         <v>81</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="40">
         <v>82</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="38">
         <v>83</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="39">
         <v>84</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="73">
         <v>85</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="53">
         <v>86</v>
       </c>
-      <c r="L7" s="57">
-        <v>87</v>
-      </c>
-      <c r="M7" s="72">
+      <c r="L7" s="54">
+        <v>87</v>
+      </c>
+      <c r="M7" s="69">
         <v>88</v>
       </c>
-      <c r="N7" s="56">
+      <c r="N7" s="53">
         <v>89</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="70">
         <v>90</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="42">
         <v>91</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="40">
         <v>92</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="38">
         <v>93</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="39">
         <v>94</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="53">
         <v>95</v>
       </c>
-      <c r="U7" s="56">
+      <c r="U7" s="53">
         <v>96</v>
       </c>
-      <c r="V7" s="57">
+      <c r="V7" s="54">
         <v>97</v>
       </c>
-      <c r="W7" s="72">
+      <c r="W7" s="69">
         <v>98</v>
       </c>
-      <c r="X7" s="56">
+      <c r="X7" s="53">
         <v>99</v>
       </c>
-      <c r="Y7" s="73">
+      <c r="Y7" s="70">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="U8" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="X8" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y8" s="75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+    <row r="8" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" s="72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
         <v>101</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="40">
         <v>102</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="38">
         <v>103</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="39">
         <v>104</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="53">
         <v>105</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="53">
         <v>106</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="54">
         <v>107</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="69">
         <v>108</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="53">
         <v>109</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="70">
         <v>110</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="42">
         <v>111</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="40">
         <v>112</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="38">
         <v>113</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="39">
         <v>114</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="53">
         <v>115</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="53">
         <v>116</v>
       </c>
-      <c r="Q9" s="57">
+      <c r="Q9" s="54">
         <v>117</v>
       </c>
-      <c r="R9" s="72">
+      <c r="R9" s="69">
         <v>118</v>
       </c>
-      <c r="S9" s="56">
+      <c r="S9" s="53">
         <v>119</v>
       </c>
-      <c r="T9" s="73">
+      <c r="T9" s="70">
         <v>120</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="42">
         <v>121</v>
       </c>
-      <c r="V9" s="43">
+      <c r="V9" s="40">
         <v>122</v>
       </c>
-      <c r="W9" s="41">
+      <c r="W9" s="38">
         <v>123</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="39">
         <v>124</v>
       </c>
-      <c r="Y9" s="56">
+      <c r="Y9" s="53">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="M10" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="63" t="s">
+      <c r="P10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="64" t="s">
+      <c r="Q10" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="74" t="s">
+      <c r="R10" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="63" t="s">
+      <c r="S10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="75" t="s">
+      <c r="T10" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" s="46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="U10" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
         <v>126</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <v>127</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="69">
         <v>128</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="53">
         <v>129</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="70">
         <v>130</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <v>131</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="40">
         <v>132</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="38">
         <v>133</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="39">
         <v>134</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="53">
         <v>135</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="53">
         <v>136</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="54">
         <v>137</v>
       </c>
-      <c r="M11" s="72">
+      <c r="M11" s="69">
         <v>138</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="53">
         <v>139</v>
       </c>
-      <c r="O11" s="73">
+      <c r="O11" s="70">
         <v>140</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="42">
         <v>141</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="40">
         <v>142</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="38">
         <v>143</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="39">
         <v>144</v>
       </c>
-      <c r="T11" s="56">
+      <c r="T11" s="53">
         <v>145</v>
       </c>
-      <c r="U11" s="56">
+      <c r="U11" s="53">
         <v>146</v>
       </c>
-      <c r="V11" s="57">
+      <c r="V11" s="54">
         <v>147</v>
       </c>
-      <c r="W11" s="72">
+      <c r="W11" s="69">
         <v>148</v>
       </c>
-      <c r="X11" s="56">
+      <c r="X11" s="53">
         <v>149</v>
       </c>
-      <c r="Y11" s="73">
+      <c r="Y11" s="70">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="O12" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="R12" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="T12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="U12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="W12" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="X12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y12" s="75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+    <row r="12" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" s="72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
         <v>151</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>152</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="38">
         <v>153</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="39">
         <v>154</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="53">
         <v>155</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="53">
         <v>156</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="54">
         <v>157</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="69">
         <v>158</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="53">
         <v>159</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="70">
         <v>160</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="42">
         <v>161</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="40">
         <v>162</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="38">
         <v>163</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="39">
         <v>164</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="53">
         <v>165</v>
       </c>
-      <c r="P13" s="56">
+      <c r="P13" s="53">
         <v>166</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="Q13" s="54">
         <v>167</v>
       </c>
-      <c r="R13" s="72">
+      <c r="R13" s="69">
         <v>168</v>
       </c>
-      <c r="S13" s="56">
+      <c r="S13" s="53">
         <v>169</v>
       </c>
-      <c r="T13" s="73">
+      <c r="T13" s="70">
         <v>170</v>
       </c>
-      <c r="U13" s="45">
+      <c r="U13" s="42">
         <v>171</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="40">
         <v>172</v>
       </c>
-      <c r="W13" s="41">
+      <c r="W13" s="38">
         <v>173</v>
       </c>
-      <c r="X13" s="42">
+      <c r="X13" s="39">
         <v>174</v>
       </c>
-      <c r="Y13" s="78">
+      <c r="Y13" s="75">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="R14" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="S14" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="T14" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="55" t="s">
+    <row r="14" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="V14" s="79" t="s">
+      <c r="V14" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="80" t="s">
+      <c r="W14" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="X14" s="81" t="s">
+      <c r="X14" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="Y14" s="82" t="s">
+      <c r="Y14" s="79" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+    <row r="15" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
         <v>176</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="54">
         <v>177</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="55">
         <v>178</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="42">
         <v>179</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="40">
         <v>180</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="38">
         <v>181</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="39">
         <v>182</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="75">
         <v>183</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="53">
         <v>184</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="54">
         <v>185</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="55">
         <v>186</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="42">
         <v>187</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="40">
         <v>188</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="38">
         <v>189</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="39">
         <v>190</v>
       </c>
-      <c r="P15" s="78">
+      <c r="P15" s="75">
         <v>191</v>
       </c>
-      <c r="Q15" s="56">
+      <c r="Q15" s="53">
         <v>192</v>
       </c>
-      <c r="R15" s="57">
+      <c r="R15" s="54">
         <v>193</v>
       </c>
-      <c r="S15" s="58">
+      <c r="S15" s="55">
         <v>194</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="42">
         <v>195</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="40">
         <v>196</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="38">
         <v>197</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="39">
         <v>198</v>
       </c>
-      <c r="X15" s="78">
+      <c r="X15" s="75">
         <v>199</v>
       </c>
-      <c r="Y15" s="56">
+      <c r="Y15" s="53">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="85" t="s">
+      <c r="I16" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="84" t="s">
+      <c r="K16" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="79" t="s">
+      <c r="M16" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="N16" s="80" t="s">
+      <c r="N16" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="O16" s="81" t="s">
+      <c r="O16" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="82" t="s">
+      <c r="P16" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="Q16" s="85" t="s">
+      <c r="Q16" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="R16" s="83" t="s">
+      <c r="R16" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="S16" s="84" t="s">
+      <c r="S16" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="T16" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="51" t="s">
+      <c r="U16" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="V16" s="52" t="s">
+      <c r="V16" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="W16" s="50" t="s">
+      <c r="W16" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X16" s="86" t="s">
+      <c r="X16" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="Y16" s="63" t="s">
+      <c r="Y16" s="60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57">
+    <row r="17" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
         <v>201</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="55">
         <v>202</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="56">
         <v>203</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="57">
         <v>204</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="57">
         <v>205</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="57">
         <v>206</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="57">
         <v>207</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="57">
         <v>208</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="57">
         <v>209</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="57">
         <v>210</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="57">
         <v>211</v>
       </c>
-      <c r="L17" s="60">
+      <c r="L17" s="57">
         <v>212</v>
       </c>
-      <c r="M17" s="60">
+      <c r="M17" s="57">
         <v>213</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="57">
         <v>214</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="57">
         <v>215</v>
       </c>
-      <c r="P17" s="60">
+      <c r="P17" s="57">
         <v>216</v>
       </c>
-      <c r="Q17" s="60">
+      <c r="Q17" s="57">
         <v>217</v>
       </c>
-      <c r="R17" s="60">
+      <c r="R17" s="57">
         <v>218</v>
       </c>
-      <c r="S17" s="60">
+      <c r="S17" s="57">
         <v>219</v>
       </c>
-      <c r="T17" s="60">
+      <c r="T17" s="57">
         <v>220</v>
       </c>
-      <c r="U17" s="60">
+      <c r="U17" s="57">
         <v>221</v>
       </c>
-      <c r="V17" s="60">
+      <c r="V17" s="57">
         <v>222</v>
       </c>
-      <c r="W17" s="60">
+      <c r="W17" s="57">
         <v>223</v>
       </c>
-      <c r="X17" s="60">
+      <c r="X17" s="57">
         <v>224</v>
       </c>
-      <c r="Y17" s="60">
+      <c r="Y17" s="57">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
+    <row r="18" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="62" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="16"/>
@@ -3364,11 +3364,11 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
+    <row r="19" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
         <v>226</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="57">
         <v>227</v>
       </c>
       <c r="C19" s="2">
@@ -3441,7 +3441,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3468,7 +3468,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>251</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3572,7 +3572,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>276</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3676,7 +3676,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>301</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3780,7 +3780,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>326</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3884,7 +3884,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>351</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3988,7 +3988,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>376</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4092,7 +4092,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>401</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4196,7 +4196,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>426</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4300,7 +4300,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>451</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4404,7 +4404,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>476</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4508,7 +4508,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>501</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4559,119 +4559,119 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="N42" s="87" t="s">
+      <c r="N42" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="O42" s="88" t="s">
+      <c r="O42" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="P42" s="89" t="s">
+      <c r="P42" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="90" t="s">
+      <c r="Q42" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="R42" s="91" t="s">
+      <c r="R42" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="S42" s="92" t="s">
+      <c r="S42" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="T42" s="93" t="s">
+      <c r="T42" s="90" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="95">
+      <c r="B44" s="92">
         <v>1</v>
       </c>
-      <c r="C44" s="95">
+      <c r="C44" s="92">
         <v>2</v>
       </c>
-      <c r="D44" s="95">
+      <c r="D44" s="92">
         <v>3</v>
       </c>
-      <c r="E44" s="95">
+      <c r="E44" s="92">
         <v>4</v>
       </c>
-      <c r="F44" s="95">
+      <c r="F44" s="92">
         <v>5</v>
       </c>
-      <c r="G44" s="95">
+      <c r="G44" s="92">
         <v>6</v>
       </c>
-      <c r="H44" s="95">
+      <c r="H44" s="92">
         <v>7</v>
       </c>
-      <c r="I44" s="95">
+      <c r="I44" s="92">
         <v>8</v>
       </c>
-      <c r="J44" s="95">
+      <c r="J44" s="92">
         <v>9</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="93">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="100" t="s">
+      <c r="E45" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="101" t="s">
+      <c r="G45" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="H45" s="102" t="s">
+      <c r="H45" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="39" t="s">
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="M45" s="103" t="s">
+      <c r="M45" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="N45" s="103"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="105" t="s">
+      <c r="C46" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="106" t="s">
+      <c r="E46" s="102" t="s">
         <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -4680,10 +4680,10 @@
       <c r="G46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="107" t="s">
+      <c r="H46" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="I46" s="108" t="s">
+      <c r="I46" s="104" t="s">
         <v>49</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -4695,62 +4695,62 @@
       <c r="L46" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="103" t="s">
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="S46" s="103"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="S46" s="108"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="106" t="s">
+      <c r="E47" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>107</v>
+      <c r="F47" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="107" t="s">
+      <c r="H47" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="I47" s="108" t="s">
+      <c r="I47" s="104" t="s">
         <v>49</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47" s="108"/>
+      <c r="N47" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="M47" s="103"/>
-      <c r="N47" s="39" t="s">
+      <c r="O47" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="O47" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/bidouille club modif Steph riri plus.xlsx
+++ b/bidouille club modif Steph riri plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\transbo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\transbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9727A-B093-4286-BF34-CAAB93B38DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6C567B-E19E-43EA-BCBF-436897FEB692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5385" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
   <si>
     <t>Acces</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>regie : 101,111</t>
+  </si>
+  <si>
+    <t>bouteille</t>
+  </si>
+  <si>
+    <t>bouteille : 17</t>
   </si>
 </sst>
 </file>
@@ -818,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1135,6 +1141,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2059,7 +2071,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,25 +2125,25 @@
       <c r="P1" s="16">
         <v>16</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="100">
         <v>17</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="101">
         <v>18</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="35">
         <v>19</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="102">
         <v>20</v>
       </c>
       <c r="U1" s="2">
         <v>21</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="103">
         <v>22</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="111">
         <v>23</v>
       </c>
       <c r="X1" s="42">
@@ -2182,13 +2194,27 @@
         <v>56</v>
       </c>
       <c r="P2" s="51"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="11"/>
+      <c r="Q2" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V2" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2" s="111" t="s">
+        <v>111</v>
+      </c>
       <c r="X2" s="52" t="s">
         <v>84</v>
       </c>
@@ -4652,8 +4678,10 @@
         <v>100</v>
       </c>
       <c r="N45" s="108"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
+      <c r="O45" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="P45" s="108"/>
       <c r="Q45" s="36"/>
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
@@ -4753,12 +4781,13 @@
       <c r="S47" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="L46:N46"/>
     <mergeCell ref="O46:Q46"/>
     <mergeCell ref="R46:S46"/>
     <mergeCell ref="L47:M47"/>
+    <mergeCell ref="O45:P45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="30" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/bidouille club modif Steph riri plus.xlsx
+++ b/bidouille club modif Steph riri plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\transbo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\transbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6C567B-E19E-43EA-BCBF-436897FEB692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F9DA59-A352-4088-883D-21D610139B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{E9F4D3C5-1615-4C21-A071-8AEEBBDA4A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="121">
   <si>
     <t>Acces</t>
   </si>
@@ -366,6 +366,30 @@
   </si>
   <si>
     <t>bouteille : 17</t>
+  </si>
+  <si>
+    <t>nicols v2</t>
+  </si>
+  <si>
+    <t>amber</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>escalier</t>
+  </si>
+  <si>
+    <t>gauche : 203</t>
+  </si>
+  <si>
+    <t>droite : 213</t>
+  </si>
+  <si>
+    <t>esca G</t>
+  </si>
+  <si>
+    <t>esca D</t>
   </si>
 </sst>
 </file>
@@ -381,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +472,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -824,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1128,6 +1164,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1143,10 +1185,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1469,15 +1532,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="17.5703125" customWidth="1"/>
+    <col min="5" max="6" width="17.54296875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -1498,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1572,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1583,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1604,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1562,7 +1625,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +1646,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1666,19 +1729,19 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="4.54296875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="36"/>
+    <col min="8" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1731,7 +1794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1754,7 +1817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1789,11 +1852,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="107">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1820,11 +1883,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="106"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="27" t="s">
         <v>76</v>
       </c>
@@ -1851,11 +1914,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="107"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="27" t="s">
         <v>77</v>
       </c>
@@ -1882,7 +1945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1917,7 +1980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1952,7 +2015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1987,7 +2050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2022,7 +2085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2068,15 +2131,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DEC275-69CB-4316-86C1-9828A0FCFFC0}">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+      <selection activeCell="AC17" sqref="AC16:AD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -2143,7 +2206,7 @@
       <c r="V1" s="103">
         <v>22</v>
       </c>
-      <c r="W1" s="111">
+      <c r="W1" s="106">
         <v>23</v>
       </c>
       <c r="X1" s="42">
@@ -2153,7 +2216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="44"/>
@@ -2194,7 +2257,7 @@
         <v>56</v>
       </c>
       <c r="P2" s="51"/>
-      <c r="Q2" s="110" t="s">
+      <c r="Q2" s="105" t="s">
         <v>111</v>
       </c>
       <c r="R2" s="64" t="s">
@@ -2212,7 +2275,7 @@
       <c r="V2" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="W2" s="111" t="s">
+      <c r="W2" s="106" t="s">
         <v>111</v>
       </c>
       <c r="X2" s="52" t="s">
@@ -2222,7 +2285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
         <v>26</v>
       </c>
@@ -2299,7 +2362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="49" t="s">
         <v>84</v>
       </c>
@@ -2358,7 +2421,7 @@
       <c r="X4" s="43"/>
       <c r="Y4" s="43"/>
     </row>
-    <row r="5" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42">
         <v>51</v>
       </c>
@@ -2435,7 +2498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="52" t="s">
         <v>74</v>
       </c>
@@ -2512,7 +2575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53">
         <v>76</v>
       </c>
@@ -2589,7 +2652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="60" t="s">
         <v>74</v>
       </c>
@@ -2666,7 +2729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>101</v>
       </c>
@@ -2743,7 +2806,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="52" t="s">
         <v>82</v>
       </c>
@@ -2820,7 +2883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="53">
         <v>126</v>
       </c>
@@ -2897,7 +2960,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="60" t="s">
         <v>87</v>
       </c>
@@ -2974,7 +3037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>151</v>
       </c>
@@ -3051,7 +3114,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="52" t="s">
         <v>87</v>
       </c>
@@ -3128,7 +3191,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="53">
         <v>176</v>
       </c>
@@ -3205,7 +3268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="60" t="s">
         <v>88</v>
       </c>
@@ -3282,74 +3345,74 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
         <v>201</v>
       </c>
       <c r="B17" s="55">
         <v>202</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="42">
         <v>203</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="53">
         <v>204</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <v>205</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="69">
         <v>206</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="40">
         <v>207</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="38">
         <v>208</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="39">
         <v>209</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="53">
         <v>210</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="116">
         <v>211</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="117">
         <v>212</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="42">
         <v>213</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="53">
         <v>214</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="54">
         <v>215</v>
       </c>
-      <c r="P17" s="57">
+      <c r="P17" s="69">
         <v>216</v>
       </c>
-      <c r="Q17" s="57">
+      <c r="Q17" s="40">
         <v>217</v>
       </c>
-      <c r="R17" s="57">
+      <c r="R17" s="38">
         <v>218</v>
       </c>
-      <c r="S17" s="57">
+      <c r="S17" s="39">
         <v>219</v>
       </c>
-      <c r="T17" s="57">
+      <c r="T17" s="53">
         <v>220</v>
       </c>
-      <c r="U17" s="57">
+      <c r="U17" s="116">
         <v>221</v>
       </c>
-      <c r="V17" s="57">
+      <c r="V17" s="117">
         <v>222</v>
       </c>
-      <c r="W17" s="57">
+      <c r="W17" s="56">
         <v>223</v>
       </c>
       <c r="X17" s="57">
@@ -3359,102 +3422,142 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="61" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="C18" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="S18" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="T18" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="U18" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="V18" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="W18" s="16"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="57">
         <v>226</v>
       </c>
       <c r="B19" s="57">
         <v>227</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="57">
         <v>228</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="57">
         <v>229</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="57">
         <v>230</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="57">
         <v>231</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="57">
         <v>232</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="57">
         <v>233</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="57">
         <v>234</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="57">
         <v>235</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="57">
         <v>236</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="57">
         <v>237</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="57">
         <v>238</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="57">
         <v>239</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="57">
         <v>240</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="57">
         <v>241</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="57">
         <v>242</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="57">
         <v>243</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="57">
         <v>244</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="57">
         <v>245</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="57">
         <v>246</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="57">
         <v>247</v>
       </c>
       <c r="W19" s="2">
@@ -3467,7 +3570,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3494,7 +3597,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>251</v>
       </c>
@@ -3571,7 +3674,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3598,7 +3701,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>276</v>
       </c>
@@ -3675,7 +3778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3702,7 +3805,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>301</v>
       </c>
@@ -3779,7 +3882,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3806,7 +3909,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>326</v>
       </c>
@@ -3883,7 +3986,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3910,7 +4013,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>351</v>
       </c>
@@ -3987,7 +4090,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4014,7 +4117,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>376</v>
       </c>
@@ -4091,7 +4194,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4118,7 +4221,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>401</v>
       </c>
@@ -4195,7 +4298,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4222,7 +4325,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>426</v>
       </c>
@@ -4299,7 +4402,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4326,7 +4429,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>451</v>
       </c>
@@ -4403,7 +4506,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4430,7 +4533,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>476</v>
       </c>
@@ -4507,7 +4610,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4534,7 +4637,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>501</v>
       </c>
@@ -4572,7 +4675,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4607,8 +4710,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="91" t="s">
         <v>53</v>
       </c>
@@ -4643,7 +4746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="57" t="s">
         <v>75</v>
       </c>
@@ -4674,19 +4777,19 @@
       <c r="L45" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="M45" s="108" t="s">
+      <c r="M45" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="N45" s="108"/>
-      <c r="O45" s="108" t="s">
+      <c r="N45" s="110"/>
+      <c r="O45" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="P45" s="108"/>
+      <c r="P45" s="110"/>
       <c r="Q45" s="36"/>
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
@@ -4720,22 +4823,22 @@
       <c r="K46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L46" s="109" t="s">
+      <c r="L46" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108" t="s">
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108" t="s">
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="S46" s="108"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S46" s="110"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -4765,10 +4868,10 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="109" t="s">
+      <c r="L47" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="108"/>
+      <c r="M47" s="110"/>
       <c r="N47" s="36" t="s">
         <v>108</v>
       </c>
@@ -4779,6 +4882,50 @@
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" t="s">
+        <v>116</v>
+      </c>
+      <c r="M48" t="s">
+        <v>117</v>
+      </c>
+      <c r="N48" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
